--- a/data/trans_orig/P78C3_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78C3_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD8C4447-2E12-4B2E-BB7F-063FA8A5CE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FABD5FA-A2D6-4E1B-90A4-8CDEF4A4E69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12F9A764-2606-4088-AAE7-17F92126ADA7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1406CC73-B954-4CC5-B4AB-BDB57C4F74F9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="90">
   <si>
     <t>Población según si tiene resuelto el retraso en los pagos de cuotas de compras aplazadas en 2023 (Tasa respuesta: 0,48%)</t>
   </si>
@@ -80,52 +80,52 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>8,32%</t>
+    <t>7,32%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,25 +140,25 @@
     <t>36,25%</t>
   </si>
   <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -170,10 +170,10 @@
     <t>22,85%</t>
   </si>
   <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -197,109 +197,112 @@
     <t>Malaga</t>
   </si>
   <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -714,7 +717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02C83B5-C082-4C30-9A06-FF631BDFDA3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A615EAF-1E1E-43F6-A340-9950685397D8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -972,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>941</v>
+        <v>864</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
@@ -987,7 +990,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>5661</v>
+        <v>5222</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>17</v>
@@ -1002,7 +1005,7 @@
         <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>6603</v>
+        <v>6086</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>20</v>
@@ -1023,7 +1026,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="7">
-        <v>10369</v>
+        <v>10948</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>23</v>
@@ -1038,7 +1041,7 @@
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1617</v>
+        <v>1514</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>25</v>
@@ -1053,7 +1056,7 @@
         <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>11986</v>
+        <v>12463</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>27</v>
@@ -1074,7 +1077,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>11310</v>
+        <v>11812</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1089,7 +1092,7 @@
         <v>8</v>
       </c>
       <c r="I9" s="7">
-        <v>7278</v>
+        <v>6736</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1104,7 +1107,7 @@
         <v>14</v>
       </c>
       <c r="N9" s="7">
-        <v>18589</v>
+        <v>18549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1142,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>975</v>
+        <v>921</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>34</v>
@@ -1157,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>975</v>
+        <v>922</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>35</v>
@@ -1178,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>4954</v>
+        <v>4926</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>19</v>
@@ -1193,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>1427</v>
+        <v>1323</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>38</v>
@@ -1208,7 +1211,7 @@
         <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>6380</v>
+        <v>6248</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -1229,7 +1232,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>4954</v>
+        <v>4926</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1244,7 +1247,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>2402</v>
+        <v>2244</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1259,7 +1262,7 @@
         <v>7</v>
       </c>
       <c r="N12" s="7">
-        <v>7355</v>
+        <v>7170</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1297,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>710</v>
+        <v>665</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>19</v>
@@ -1312,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>710</v>
+        <v>665</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>44</v>
@@ -1333,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>19</v>
@@ -1363,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>45</v>
@@ -1384,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1399,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>710</v>
+        <v>665</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="N15" s="7">
-        <v>870</v>
+        <v>829</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1625,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>980</v>
+        <v>989</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>19</v>
@@ -1640,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>2517</v>
+        <v>2319</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>19</v>
@@ -1655,7 +1658,7 @@
         <v>6</v>
       </c>
       <c r="N20" s="7">
-        <v>3497</v>
+        <v>3307</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>19</v>
@@ -1676,7 +1679,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>980</v>
+        <v>989</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1691,7 +1694,7 @@
         <v>4</v>
       </c>
       <c r="I21" s="7">
-        <v>2517</v>
+        <v>2319</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1706,7 +1709,7 @@
         <v>6</v>
       </c>
       <c r="N21" s="7">
-        <v>3497</v>
+        <v>3307</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1729,7 +1732,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>2209</v>
+        <v>2145</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>53</v>
@@ -1744,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>2309</v>
+        <v>2161</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>54</v>
@@ -1759,7 +1762,7 @@
         <v>6</v>
       </c>
       <c r="N22" s="7">
-        <v>4517</v>
+        <v>4305</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>56</v>
@@ -1780,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>1040</v>
+        <v>990</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>59</v>
@@ -1795,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>885</v>
+        <v>837</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>60</v>
@@ -1810,7 +1813,7 @@
         <v>3</v>
       </c>
       <c r="N23" s="7">
-        <v>1925</v>
+        <v>1828</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>62</v>
@@ -1831,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>3249</v>
+        <v>3135</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -1846,7 +1849,7 @@
         <v>6</v>
       </c>
       <c r="I24" s="7">
-        <v>3194</v>
+        <v>2998</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -1861,7 +1864,7 @@
         <v>9</v>
       </c>
       <c r="N24" s="7">
-        <v>6442</v>
+        <v>6133</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -1884,7 +1887,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>1872</v>
+        <v>1559</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>19</v>
@@ -1899,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>785</v>
+        <v>670</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>66</v>
@@ -1914,13 +1917,13 @@
         <v>3</v>
       </c>
       <c r="N25" s="7">
-        <v>2657</v>
+        <v>2229</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>67</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>19</v>
@@ -1950,10 +1953,10 @@
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>756</v>
+        <v>625</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>15</v>
@@ -1965,10 +1968,10 @@
         <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>756</v>
+        <v>625</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>15</v>
@@ -1986,7 +1989,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="7">
-        <v>1872</v>
+        <v>1559</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2001,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="7">
-        <v>1541</v>
+        <v>1295</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2016,7 +2019,7 @@
         <v>4</v>
       </c>
       <c r="N27" s="7">
-        <v>3413</v>
+        <v>2854</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2039,46 +2042,46 @@
         <v>5</v>
       </c>
       <c r="D28" s="7">
-        <v>5022</v>
+        <v>4568</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
       </c>
       <c r="I28" s="7">
-        <v>10440</v>
+        <v>9639</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M28" s="7">
         <v>18</v>
       </c>
       <c r="N28" s="7">
-        <v>15462</v>
+        <v>14207</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2090,46 +2093,46 @@
         <v>13</v>
       </c>
       <c r="D29" s="7">
-        <v>17502</v>
+        <v>18016</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
       </c>
       <c r="I29" s="7">
-        <v>7203</v>
+        <v>6618</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M29" s="7">
         <v>24</v>
       </c>
       <c r="N29" s="7">
-        <v>24705</v>
+        <v>24634</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,7 +2144,7 @@
         <v>18</v>
       </c>
       <c r="D30" s="7">
-        <v>22524</v>
+        <v>22584</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2156,7 +2159,7 @@
         <v>24</v>
       </c>
       <c r="I30" s="7">
-        <v>17643</v>
+        <v>16257</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2171,7 +2174,7 @@
         <v>42</v>
       </c>
       <c r="N30" s="7">
-        <v>40167</v>
+        <v>38841</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2185,7 +2188,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
